--- a/data/TWP emission data_IDIADA_v02.xlsx
+++ b/data/TWP emission data_IDIADA_v02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\R\meesterj\tyre-friction-abrassion-emission\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D19FD6-9481-48D8-8EA8-299184C20FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775311E4-54FD-4A7E-88A0-F7DAC864805B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{1B08EC6D-E4F6-452D-BA0B-C8BBC214CF8F}"/>
   </bookViews>
@@ -3878,7 +3878,7 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5212,7 +5212,7 @@
         <v>13.888888888888889</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" ref="H35:I39" si="3">130/3.6</f>
+        <f t="shared" ref="H35:I38" si="3">130/3.6</f>
         <v>36.111111111111107</v>
       </c>
       <c r="I35" s="5">
@@ -5246,16 +5246,13 @@
         <v>1</v>
       </c>
       <c r="G36" s="5">
-        <f>130/3.6</f>
-        <v>36.111111111111107</v>
+        <v>0</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="3"/>
-        <v>36.111111111111107</v>
+        <v>0</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="3"/>
-        <v>36.111111111111107</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -5319,16 +5316,13 @@
         <v>1</v>
       </c>
       <c r="G38" s="5">
-        <f>130/3.6</f>
-        <v>36.111111111111107</v>
+        <v>0</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="3"/>
-        <v>36.111111111111107</v>
+        <v>0</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="3"/>
-        <v>36.111111111111107</v>
+        <v>0</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -12155,6 +12149,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0577e6a0-5f74-4659-a81a-c7bdc984432d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f5c8fe0e-f8db-4fac-9fd3-e69469f9c90b" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF634CA3F5682C418397C6E4414BCDE3" ma:contentTypeVersion="19" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="dcc84226a5c9737fccd97eea407b26d6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0577e6a0-5f74-4659-a81a-c7bdc984432d" xmlns:ns3="f5c8fe0e-f8db-4fac-9fd3-e69469f9c90b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="412c1c7c3b81559b33b856787a43d0a8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12420,19 +12427,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0577e6a0-5f74-4659-a81a-c7bdc984432d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f5c8fe0e-f8db-4fac-9fd3-e69469f9c90b" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12443,6 +12437,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7FDE463-4D3F-41EC-839E-DA16C78214B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="0577e6a0-5f74-4659-a81a-c7bdc984432d"/>
+    <ds:schemaRef ds:uri="f5c8fe0e-f8db-4fac-9fd3-e69469f9c90b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1A97AFE-C266-46C6-A1B3-B4280223A46E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12462,18 +12468,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7FDE463-4D3F-41EC-839E-DA16C78214B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="0577e6a0-5f74-4659-a81a-c7bdc984432d"/>
-    <ds:schemaRef ds:uri="f5c8fe0e-f8db-4fac-9fd3-e69469f9c90b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD6878A0-F687-4E6D-A191-8D8ADCEF84BD}">
   <ds:schemaRefs>
